--- a/crgu/crgu.xlsx
+++ b/crgu/crgu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="clock" sheetId="1" r:id="rId1"/>
@@ -20,177 +20,246 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
-  <si>
-    <t>128K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100M</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+  <si>
+    <t>clk_spi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rstn_dest_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_sys_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>global rstn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad_porn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~cmd_reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sync_clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_32k</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local rstn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~rx_reset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_spi_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_rx_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_adc_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shut_rstn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_top_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_eprom_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rst_cv_n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_cv_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_eprom_en</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clock_dest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_sys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_tim</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_adc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_slot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_eprom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_spi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dest_freq</t>
   </si>
   <si>
     <t>32K</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5M</t>
+  </si>
+  <si>
+    <t>clock_source_name</t>
+  </si>
+  <si>
+    <t>OSC32K</t>
+  </si>
+  <si>
+    <t>OSC13M</t>
+  </si>
+  <si>
+    <t>source_freq</t>
+  </si>
+  <si>
+    <t>13M</t>
+  </si>
+  <si>
+    <t>div_factor</t>
   </si>
   <si>
     <t>ckg_sig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>top_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eprom_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clock_source_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>osc_128k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spi_clk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pll_100m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_ana</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>source_freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dest_freq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>div_factor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rstn_dest_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_sys_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>global rstn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ad_porn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~cmd_reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sync_clock</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clk_32k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>local rstn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~rx_reset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_spi_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_rx_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_adc_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shut_rstn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_en</t>
   </si>
   <si>
     <t>rg_top_start</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_eprom_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rst_cv_n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rg_cv_en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rg_eprom_en</t>
+  </si>
+  <si>
+    <t>mux_sel</t>
+  </si>
+  <si>
+    <t>rg_clk_sel</t>
+  </si>
+  <si>
+    <t>source_0</t>
+  </si>
+  <si>
+    <t>source_1</t>
+  </si>
+  <si>
+    <t>CLKIN</t>
+  </si>
+  <si>
+    <t>to_module</t>
+  </si>
+  <si>
+    <t>PMU</t>
+  </si>
+  <si>
+    <t>Time_ctrl</t>
+  </si>
+  <si>
+    <t>reg_ctrl</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>clk_32k_alon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_32k_tim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_clk_sel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_spis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2CS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_i2cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_ctrl_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_fifo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_fifo_clk_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fifo_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_6p5m_efuse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_efuse_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efuse_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_13m_slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timeslot_manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clk_13m_afe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rg_top_start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AFE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,161 +617,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="16.9296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3984375" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16.265625" customWidth="1"/>
+    <col min="5" max="5" width="18.1328125" customWidth="1"/>
+    <col min="6" max="6" width="16.9296875" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.46484375" customWidth="1"/>
+    <col min="9" max="9" width="19.06640625" customWidth="1"/>
+    <col min="10" max="10" width="15.796875" customWidth="1"/>
+    <col min="11" max="11" width="14.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+      <c r="I1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -716,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -732,92 +959,92 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -831,17 +1058,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -851,10 +1078,10 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -864,13 +1091,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3"/>
     </row>

--- a/crgu/crgu.xlsx
+++ b/crgu/crgu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="clock" sheetId="1" r:id="rId1"/>
@@ -620,7 +620,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
